--- a/ContactsPageTestCases.xlsx
+++ b/ContactsPageTestCases.xlsx
@@ -64,78 +64,78 @@
     <t>I am on the "Home" page.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hover over "About Us" on menu
+    <t>Contacts page opens</t>
+  </si>
+  <si>
+    <t>Telephone numbers have 
+format: +380 44 123 4567</t>
+  </si>
+  <si>
+    <t>Telephone numbers are displayed 
+international format</t>
+  </si>
+  <si>
+    <t>Field "EMAIL" is clickable and opens 
+user's default mail application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hover over email address 
+AND
+Click on email address </t>
+  </si>
+  <si>
+    <t>Email address has a hand cursor
+AND
+User's default mail application opens</t>
+  </si>
+  <si>
+    <t>Redirection to Contacts page</t>
+  </si>
+  <si>
+    <t>The page Contacts starts with the centered word CONTACTS</t>
+  </si>
+  <si>
+    <t>The word CONTACTS is displayed 
+on the center at the top of the page</t>
+  </si>
+  <si>
+    <t>Checking existence of next fields: 
+name, address, phones, faxes, email, opening hours</t>
+  </si>
+  <si>
+    <t>Next fields: name, address, phones, 
+faxes, email, opening hours are displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking existence of area with 
+google map and marker </t>
+  </si>
+  <si>
+    <t>There is a map
+AND
+It corresponds to such criteria: medium sized rectangular area for google map with marker</t>
+  </si>
+  <si>
+    <t>EPMFARMKPP-7708</t>
+  </si>
+  <si>
+    <t>Fields "Address", "Phones", "Faxes" 
+are NOT clickable</t>
+  </si>
+  <si>
+    <t>EPMFARMKPP-5497</t>
+  </si>
+  <si>
+    <t>Click on address, phones, faxes fields</t>
+  </si>
+  <si>
+    <t>Address, phones, faxes are not clickable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "About Us" on menu
 AND
 Click on "Contacts" in submenu.
 </t>
-  </si>
-  <si>
-    <t>Contacts page opens</t>
-  </si>
-  <si>
-    <t>Telephone numbers have 
-format: +380 44 123 4567</t>
-  </si>
-  <si>
-    <t>Telephone numbers are displayed 
-international format</t>
-  </si>
-  <si>
-    <t>Field "EMAIL" is clickable and opens 
-user's default mail application.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hover over email address 
-AND
-Click on email address </t>
-  </si>
-  <si>
-    <t>Email address has a hand cursor
-AND
-User's default mail application opens</t>
-  </si>
-  <si>
-    <t>Redirection to Contacts page</t>
-  </si>
-  <si>
-    <t>The page Contacts starts with the centered word CONTACTS</t>
-  </si>
-  <si>
-    <t>The word CONTACTS is displayed 
-on the center at the top of the page</t>
-  </si>
-  <si>
-    <t>Checking existence of next fields: 
-name, address, phones, faxes, email, opening hours</t>
-  </si>
-  <si>
-    <t>Next fields: name, address, phones, 
-faxes, email, opening hours are displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking existence of area with 
-google map and marker </t>
-  </si>
-  <si>
-    <t>There is a map
-AND
-It corresponds to such criteria: medium sized rectangular area for google map with marker</t>
-  </si>
-  <si>
-    <t>EPMFARMKPP-7708</t>
-  </si>
-  <si>
-    <t>Fields "Address", "Phones", "Faxes" 
-are NOT clickable</t>
-  </si>
-  <si>
-    <t>EPMFARMKPP-5497</t>
-  </si>
-  <si>
-    <t>Click on address, phones, faxes fields</t>
-  </si>
-  <si>
-    <t>Address, phones, faxes are not clickable.</t>
   </si>
 </sst>
 </file>
@@ -252,12 +252,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -278,6 +272,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -565,257 +565,257 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <f t="shared" ref="A4:B12" si="0">ROW()-2</f>
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A10" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
